--- a/data/trans_dic/P2B_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P2B_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con movilidad a otra vivienda por motivos laborales</t>
+          <t>Población con movilidad a otra vivienda por motivos laborales (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 28,5</t>
+          <t>0,34; 2,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 32,68</t>
+          <t>0,56; 2,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 28,66</t>
+          <t>0,26; 1,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 24,87</t>
+          <t>0,31; 1,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 24,06</t>
+          <t>0,41; 1,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 23,26</t>
+          <t>0,6; 1,85</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,73</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,5</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,99; 46,94</t>
+          <t>0,54; 2,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 43,9</t>
+          <t>0,54; 2,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 36,12</t>
+          <t>0,4; 1,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 30,57</t>
+          <t>0,43; 1,59</t>
         </is>
       </c>
     </row>
@@ -761,7 +762,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,22 +772,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,66</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,64</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,01</t>
+          <t>0,0; 5,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 35,78</t>
+          <t>0,23; 2,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,63</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 22,98</t>
+          <t>0,32; 1,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 24,32</t>
+          <t>0,4; 1,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 28,79</t>
+          <t>0,58; 1,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 25,89</t>
+          <t>0,63; 1,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 23,03</t>
+          <t>0,55; 1,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 21,6</t>
+          <t>0,62; 1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con movilidad a otra vivienda por motivos laborales (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15249</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22266</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13389</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15795</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28638</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38060</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5621; 33041</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9312; 45378</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4715; 27187</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5689; 32756</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14004; 48823</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20660; 64181</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5044</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5783</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16877</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18681</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21921</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24464</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16368</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20479</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7650; 31967</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7569; 38127</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11210; 40382</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11789; 44092</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3129</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6027</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7462</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6027</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16554</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13189</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21581</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1906; 22644</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22673</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23421</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28049</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34600</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40502</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>58021</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>68551</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11192; 44179</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13765; 50933</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20821; 56042</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22759; 65854</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38843; 85386</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>43861; 102487</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>